--- a/Final_Living_Data.xlsx
+++ b/Final_Living_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Area_Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wage_to_Housing_Ratio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Wage_to_Transportation_Ratio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wage_to_Food_Ratio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wage_to_Entertainment_Ratio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Wage_to_Healthcare_Ratio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Area_Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Housing_Ratio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Transportation_Ratio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Food_Ratio</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Entertainment_Ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Healthcare_Ratio</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Area_Name</t>
+          <t>Total Tax Burden (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Property Tax Burden (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Total Tax Burden (%)</t>
+          <t>Individual Income Tax Burden (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Property Tax Burden (%)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Individual Income Tax Burden (%)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Total Sales &amp; Excise Tax Burden (%)</t>
         </is>
@@ -503,2695 +493,2145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>Albuquerque, NM (00-10740)</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>636</v>
+      </c>
       <c r="C2" t="n">
-        <v>636</v>
+        <v>1061</v>
       </c>
       <c r="D2" t="n">
-        <v>1061</v>
+        <v>1591</v>
       </c>
       <c r="E2" t="n">
-        <v>1591</v>
+        <v>3183</v>
       </c>
       <c r="F2" t="n">
-        <v>3183</v>
-      </c>
-      <c r="G2" t="n">
         <v>2122</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Albuquerque, NM (00-10740)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0186</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0803</v>
+        <v>0.0113</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="M2" t="n">
         <v>0.0504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>Atlanta-Sandy Springs-Roswell, GA (00-12060)</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>519</v>
+      </c>
       <c r="C3" t="n">
-        <v>519</v>
+        <v>1112</v>
       </c>
       <c r="D3" t="n">
-        <v>1112</v>
+        <v>1730</v>
       </c>
       <c r="E3" t="n">
-        <v>1730</v>
+        <v>3114</v>
       </c>
       <c r="F3" t="n">
-        <v>3114</v>
-      </c>
-      <c r="G3" t="n">
         <v>2224</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Atlanta-Sandy Springs-Roswell, GA (00-12060)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
+      <c r="H3" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.025</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0765</v>
+        <v>0.0236</v>
       </c>
       <c r="K3" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="M3" t="n">
         <v>0.0279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Austin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>Austin-Round Rock, TX (00-12420)</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>464</v>
+      </c>
       <c r="C4" t="n">
-        <v>464</v>
+        <v>1142</v>
       </c>
       <c r="D4" t="n">
-        <v>1142</v>
+        <v>1650</v>
       </c>
       <c r="E4" t="n">
-        <v>1650</v>
+        <v>2970</v>
       </c>
       <c r="F4" t="n">
-        <v>2970</v>
-      </c>
-      <c r="G4" t="n">
         <v>2320</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Austin-Round Rock, TX (00-12420)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
+      <c r="H4" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0371</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0756</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
         <v>0.0385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltimore</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>Baltimore-Columbia-Towson, MD (00-12580)</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>763</v>
+      </c>
       <c r="C5" t="n">
-        <v>763</v>
+        <v>1526</v>
       </c>
       <c r="D5" t="n">
-        <v>1526</v>
+        <v>2289</v>
       </c>
       <c r="E5" t="n">
-        <v>2289</v>
+        <v>4161</v>
       </c>
       <c r="F5" t="n">
-        <v>4161</v>
-      </c>
-      <c r="G5" t="n">
         <v>2953</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Baltimore-Columbia-Towson, MD (00-12580)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>MD</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.026</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0926</v>
+        <v>0.04</v>
       </c>
       <c r="K5" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M5" t="n">
         <v>0.0266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boise</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>Boise City, ID (00-14260)</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>598</v>
+      </c>
       <c r="C6" t="n">
-        <v>598</v>
+        <v>1197</v>
       </c>
       <c r="D6" t="n">
-        <v>1197</v>
+        <v>1733</v>
       </c>
       <c r="E6" t="n">
-        <v>1733</v>
+        <v>3294</v>
       </c>
       <c r="F6" t="n">
-        <v>3294</v>
-      </c>
-      <c r="G6" t="n">
         <v>2196</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Boise City, ID (00-14260)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+      <c r="H6" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0212</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0786</v>
+        <v>0.0247</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0212</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0247</v>
-      </c>
-      <c r="M6" t="n">
         <v>0.0327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boston</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>Boston-Cambridge-Nashua, MA-NH (00-71650)</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>384</v>
+      </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>1201</v>
       </c>
       <c r="D7" t="n">
-        <v>1201</v>
+        <v>1922</v>
       </c>
       <c r="E7" t="n">
-        <v>1922</v>
+        <v>3203</v>
       </c>
       <c r="F7" t="n">
-        <v>3203</v>
-      </c>
-      <c r="G7" t="n">
         <v>2402</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Boston-Cambridge-Nashua, MA-NH (00-71650)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>NH</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0451</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0563</v>
+        <v>0.0015</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0451</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="M7" t="n">
         <v>0.0097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Buffalo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>Buffalo-Cheektowaga-Niagara Falls, NY (00-15380)</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>765</v>
+      </c>
       <c r="C8" t="n">
-        <v>765</v>
+        <v>1252</v>
       </c>
       <c r="D8" t="n">
-        <v>1252</v>
+        <v>1812</v>
       </c>
       <c r="E8" t="n">
-        <v>1812</v>
+        <v>3826</v>
       </c>
       <c r="F8" t="n">
-        <v>3826</v>
-      </c>
-      <c r="G8" t="n">
         <v>2374</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Buffalo-Cheektowaga-Niagara Falls, NY (00-15380)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0.1202</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0436</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1202</v>
+        <v>0.0463</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0436</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0463</v>
-      </c>
-      <c r="M8" t="n">
         <v>0.0303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>Charleston, WV (00-16620)</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>389</v>
+      </c>
       <c r="C9" t="n">
-        <v>389</v>
+        <v>838</v>
       </c>
       <c r="D9" t="n">
-        <v>838</v>
+        <v>1297</v>
       </c>
       <c r="E9" t="n">
-        <v>1297</v>
+        <v>2477</v>
       </c>
       <c r="F9" t="n">
-        <v>2477</v>
-      </c>
-      <c r="G9" t="n">
         <v>1651</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Charleston, WV (00-16620)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>WV</t>
-        </is>
+      <c r="H9" t="n">
+        <v>0.08450000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0222</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08450000000000001</v>
+        <v>0.0261</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0222</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M9" t="n">
         <v>0.0362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>Charleston-North Charleston, SC (00-16700)</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>517</v>
+      </c>
       <c r="C10" t="n">
-        <v>517</v>
+        <v>1114</v>
       </c>
       <c r="D10" t="n">
-        <v>1114</v>
+        <v>1725</v>
       </c>
       <c r="E10" t="n">
-        <v>1725</v>
+        <v>3293</v>
       </c>
       <c r="F10" t="n">
-        <v>3293</v>
-      </c>
-      <c r="G10" t="n">
         <v>2195</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Charleston-North Charleston, SC (00-16700)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0263</v>
       </c>
       <c r="J10" t="n">
-        <v>0.075</v>
+        <v>0.02</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0263</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M10" t="n">
         <v>0.0287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>Charlotte-Concord-Gastonia, NC-SC (00-16740)</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>651</v>
+      </c>
       <c r="C11" t="n">
-        <v>651</v>
+        <v>1302</v>
       </c>
       <c r="D11" t="n">
-        <v>1302</v>
+        <v>2016</v>
       </c>
       <c r="E11" t="n">
-        <v>2016</v>
+        <v>3681</v>
       </c>
       <c r="F11" t="n">
-        <v>3681</v>
-      </c>
-      <c r="G11" t="n">
         <v>2646</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Charlotte-Concord-Gastonia, NC-SC (00-16740)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.02</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0789</v>
+        <v>0.0268</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0268</v>
-      </c>
-      <c r="M11" t="n">
         <v>0.0321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>Charlottesville, VA (00-16820)</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>612</v>
+      </c>
       <c r="C12" t="n">
-        <v>612</v>
+        <v>1225</v>
       </c>
       <c r="D12" t="n">
-        <v>1225</v>
+        <v>1896</v>
       </c>
       <c r="E12" t="n">
-        <v>1896</v>
+        <v>3463</v>
       </c>
       <c r="F12" t="n">
-        <v>3463</v>
-      </c>
-      <c r="G12" t="n">
         <v>2489</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Charlottesville, VA (00-16820)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
+      <c r="H12" t="n">
+        <v>0.08450000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0289</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08450000000000001</v>
+        <v>0.0298</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0289</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0298</v>
-      </c>
-      <c r="M12" t="n">
         <v>0.0258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>Chicago-Naperville-Elgin, IL-IN-WI (00-16980)</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>430</v>
+      </c>
       <c r="C13" t="n">
-        <v>430</v>
+        <v>1034</v>
       </c>
       <c r="D13" t="n">
-        <v>1034</v>
+        <v>1615</v>
       </c>
       <c r="E13" t="n">
-        <v>1615</v>
+        <v>2872</v>
       </c>
       <c r="F13" t="n">
-        <v>2872</v>
-      </c>
-      <c r="G13" t="n">
         <v>2040</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Chicago-Naperville-Elgin, IL-IN-WI (00-16980)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0.09669999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0367</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.0257</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0367</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0257</v>
-      </c>
-      <c r="M13" t="n">
         <v>0.0343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>Cleveland, TN (00-17420)</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>588</v>
+      </c>
       <c r="C14" t="n">
-        <v>588</v>
+        <v>962</v>
       </c>
       <c r="D14" t="n">
-        <v>962</v>
+        <v>1392</v>
       </c>
       <c r="E14" t="n">
-        <v>1392</v>
+        <v>2940</v>
       </c>
       <c r="F14" t="n">
-        <v>2940</v>
-      </c>
-      <c r="G14" t="n">
         <v>1825</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Cleveland, TN (00-17420)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
+      <c r="H14" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0164</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0607</v>
+        <v>0.0005</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0164</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="M14" t="n">
         <v>0.0438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>Cleveland-Elyria, OH (00-17460)</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>768</v>
+      </c>
       <c r="C15" t="n">
-        <v>768</v>
+        <v>1256</v>
       </c>
       <c r="D15" t="n">
-        <v>1256</v>
+        <v>1818</v>
       </c>
       <c r="E15" t="n">
-        <v>1818</v>
+        <v>3840</v>
       </c>
       <c r="F15" t="n">
-        <v>3840</v>
-      </c>
-      <c r="G15" t="n">
         <v>2383</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Cleveland-Elyria, OH (00-17460)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
+      <c r="H15" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0272</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0892</v>
+        <v>0.0248</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="M15" t="n">
         <v>0.0372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>Colorado Springs, CO (00-17820)</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>723</v>
+      </c>
       <c r="C16" t="n">
-        <v>723</v>
+        <v>1447</v>
       </c>
       <c r="D16" t="n">
-        <v>1447</v>
+        <v>2171</v>
       </c>
       <c r="E16" t="n">
-        <v>2171</v>
+        <v>3948</v>
       </c>
       <c r="F16" t="n">
-        <v>3948</v>
-      </c>
-      <c r="G16" t="n">
         <v>2802</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Colorado Springs, CO (00-17820)</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
+      <c r="H16" t="n">
+        <v>0.0842</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0293</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0842</v>
+        <v>0.0249</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0249</v>
-      </c>
-      <c r="M16" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Columbus</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>Columbus, GA-AL (00-17980)</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>691</v>
+      </c>
       <c r="C17" t="n">
-        <v>691</v>
+        <v>1153</v>
       </c>
       <c r="D17" t="n">
-        <v>1153</v>
+        <v>1729</v>
       </c>
       <c r="E17" t="n">
-        <v>1729</v>
+        <v>3459</v>
       </c>
       <c r="F17" t="n">
-        <v>3459</v>
-      </c>
-      <c r="G17" t="n">
         <v>2306</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Columbus, GA-AL (00-17980)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.025</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0765</v>
+        <v>0.0236</v>
       </c>
       <c r="K17" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="M17" t="n">
         <v>0.0279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Columbus</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>Columbus, IN (00-18020)</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>648</v>
+      </c>
       <c r="C18" t="n">
-        <v>648</v>
+        <v>1080</v>
       </c>
       <c r="D18" t="n">
-        <v>1080</v>
+        <v>1621</v>
       </c>
       <c r="E18" t="n">
-        <v>1621</v>
+        <v>3242</v>
       </c>
       <c r="F18" t="n">
-        <v>3242</v>
-      </c>
-      <c r="G18" t="n">
         <v>2161</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Columbus, IN (00-18020)</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
+      <c r="H18" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0214</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0885</v>
+        <v>0.0306</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0214</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0306</v>
-      </c>
-      <c r="M18" t="n">
         <v>0.0365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Columbus</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>Columbus, OH (00-18140)</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>707</v>
+      </c>
       <c r="C19" t="n">
-        <v>707</v>
+        <v>1179</v>
       </c>
       <c r="D19" t="n">
-        <v>1179</v>
+        <v>1768</v>
       </c>
       <c r="E19" t="n">
-        <v>1768</v>
+        <v>3537</v>
       </c>
       <c r="F19" t="n">
-        <v>3537</v>
-      </c>
-      <c r="G19" t="n">
         <v>2358</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Columbus, OH (00-18140)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
+      <c r="H19" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0272</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0892</v>
+        <v>0.0248</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="M19" t="n">
         <v>0.0372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>Dallas-Fort Worth-Arlington, TX (00-19100)</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>551</v>
+      </c>
       <c r="C20" t="n">
-        <v>551</v>
+        <v>1103</v>
       </c>
       <c r="D20" t="n">
-        <v>1103</v>
+        <v>1716</v>
       </c>
       <c r="E20" t="n">
-        <v>1716</v>
+        <v>3089</v>
       </c>
       <c r="F20" t="n">
-        <v>3089</v>
-      </c>
-      <c r="G20" t="n">
         <v>2340</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Dallas-Fort Worth-Arlington, TX (00-19100)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0371</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0756</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
         <v>0.0385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Denver</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>Denver-Aurora-Lakewood, CO (00-19740)</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>530</v>
+      </c>
       <c r="C21" t="n">
-        <v>530</v>
+        <v>1288</v>
       </c>
       <c r="D21" t="n">
-        <v>1288</v>
+        <v>1960</v>
       </c>
       <c r="E21" t="n">
-        <v>1960</v>
+        <v>3468</v>
       </c>
       <c r="F21" t="n">
-        <v>3468</v>
-      </c>
-      <c r="G21" t="n">
         <v>2576</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Denver-Aurora-Lakewood, CO (00-19740)</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
+      <c r="H21" t="n">
+        <v>0.0842</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0293</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0842</v>
+        <v>0.0249</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0249</v>
-      </c>
-      <c r="M21" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Des Moines</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>Des Moines-West Des Moines, IA (00-19780)</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>818</v>
+      </c>
       <c r="C22" t="n">
-        <v>818</v>
+        <v>1339</v>
       </c>
       <c r="D22" t="n">
-        <v>1339</v>
+        <v>1938</v>
       </c>
       <c r="E22" t="n">
-        <v>1938</v>
+        <v>4092</v>
       </c>
       <c r="F22" t="n">
-        <v>4092</v>
-      </c>
-      <c r="G22" t="n">
         <v>2539</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Des Moines-West Des Moines, IA (00-19780)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0339</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0921</v>
+        <v>0.0239</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0339</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="M22" t="n">
         <v>0.0343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Detroit</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>Detroit-Warren-Dearborn, MI (00-19820)</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>947</v>
+      </c>
       <c r="C23" t="n">
-        <v>947</v>
+        <v>1263</v>
       </c>
       <c r="D23" t="n">
-        <v>1263</v>
+        <v>1895</v>
       </c>
       <c r="E23" t="n">
-        <v>1895</v>
+        <v>3791</v>
       </c>
       <c r="F23" t="n">
-        <v>3791</v>
-      </c>
-      <c r="G23" t="n">
         <v>2527</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Detroit-Warren-Dearborn, MI (00-19820)</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
+      <c r="H23" t="n">
+        <v>0.08019999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0294</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0223</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0294</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0223</v>
-      </c>
-      <c r="M23" t="n">
         <v>0.0285</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hartford</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>Hartford-West Hartford-East Hartford, CT (00-73450)</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>772</v>
+      </c>
       <c r="C24" t="n">
-        <v>772</v>
+        <v>1415</v>
       </c>
       <c r="D24" t="n">
-        <v>1415</v>
+        <v>2123</v>
       </c>
       <c r="E24" t="n">
-        <v>2123</v>
+        <v>4247</v>
       </c>
       <c r="F24" t="n">
-        <v>4247</v>
-      </c>
-      <c r="G24" t="n">
         <v>2740</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Hartford-West Hartford-East Hartford, CT (00-73450)</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
+      <c r="H24" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0395</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1008</v>
+        <v>0.0342</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0395</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0342</v>
-      </c>
-      <c r="M24" t="n">
         <v>0.0271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>Houston-The Woodlands-Sugar Land, TX (00-26420)</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>528</v>
+      </c>
       <c r="C25" t="n">
-        <v>528</v>
+        <v>981</v>
       </c>
       <c r="D25" t="n">
-        <v>981</v>
+        <v>1527</v>
       </c>
       <c r="E25" t="n">
-        <v>1527</v>
+        <v>2748</v>
       </c>
       <c r="F25" t="n">
-        <v>2748</v>
-      </c>
-      <c r="G25" t="n">
         <v>2082</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Houston-The Woodlands-Sugar Land, TX (00-26420)</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
+      <c r="H25" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0371</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0756</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
         <v>0.0385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Huntsville</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>Huntsville, AL (00-26620)</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>930</v>
+      </c>
       <c r="C26" t="n">
-        <v>930</v>
+        <v>1522</v>
       </c>
       <c r="D26" t="n">
-        <v>1522</v>
+        <v>2203</v>
       </c>
       <c r="E26" t="n">
-        <v>2203</v>
+        <v>4652</v>
       </c>
       <c r="F26" t="n">
-        <v>4652</v>
-      </c>
-      <c r="G26" t="n">
         <v>2887</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Huntsville, AL (00-26620)</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
+      <c r="H26" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0133</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0752</v>
+        <v>0.0201</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="M26" t="n">
         <v>0.0418</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>Indianapolis-Carmel-Anderson, IN (00-26900)</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>689</v>
+      </c>
       <c r="C27" t="n">
-        <v>689</v>
+        <v>1149</v>
       </c>
       <c r="D27" t="n">
-        <v>1149</v>
+        <v>1724</v>
       </c>
       <c r="E27" t="n">
-        <v>1724</v>
+        <v>3448</v>
       </c>
       <c r="F27" t="n">
-        <v>3448</v>
-      </c>
-      <c r="G27" t="n">
         <v>2299</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Indianapolis-Carmel-Anderson, IN (00-26900)</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
+      <c r="H27" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0214</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0885</v>
+        <v>0.0306</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0214</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0306</v>
-      </c>
-      <c r="M27" t="n">
         <v>0.0365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>Kansas City, MO-KS (00-28140)</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>728</v>
+      </c>
       <c r="C28" t="n">
-        <v>728</v>
+        <v>1154</v>
       </c>
       <c r="D28" t="n">
-        <v>1154</v>
+        <v>1731</v>
       </c>
       <c r="E28" t="n">
-        <v>1731</v>
+        <v>3462</v>
       </c>
       <c r="F28" t="n">
-        <v>3462</v>
-      </c>
-      <c r="G28" t="n">
         <v>2308</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Kansas City, MO-KS (00-28140)</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
+      <c r="H28" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0304</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0929</v>
+        <v>0.0267</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0304</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.0267</v>
-      </c>
-      <c r="M28" t="n">
         <v>0.0358</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>Las Vegas-Henderson-Paradise, NV (00-29820)</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>508</v>
+      </c>
       <c r="C29" t="n">
-        <v>508</v>
+        <v>939</v>
       </c>
       <c r="D29" t="n">
-        <v>939</v>
+        <v>1453</v>
       </c>
       <c r="E29" t="n">
-        <v>1453</v>
+        <v>2775</v>
       </c>
       <c r="F29" t="n">
-        <v>2775</v>
-      </c>
-      <c r="G29" t="n">
         <v>1908</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Las Vegas-Henderson-Paradise, NV (00-29820)</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
+      <c r="H29" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0202</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0737</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0202</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
         <v>0.0535</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>Los Angeles-Long Beach-Anaheim, CA (00-31080)</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>379</v>
+      </c>
       <c r="C30" t="n">
-        <v>379</v>
+        <v>1042</v>
       </c>
       <c r="D30" t="n">
-        <v>1042</v>
+        <v>1668</v>
       </c>
       <c r="E30" t="n">
-        <v>1668</v>
+        <v>2780</v>
       </c>
       <c r="F30" t="n">
-        <v>2780</v>
-      </c>
-      <c r="G30" t="n">
         <v>2085</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Los Angeles-Long Beach-Anaheim, CA (00-31080)</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
+      <c r="H30" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0273</v>
       </c>
       <c r="J30" t="n">
-        <v>0.104</v>
+        <v>0.0487</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.0487</v>
-      </c>
-      <c r="M30" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>Memphis, TN-MS-AR (00-32820)</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>789</v>
+      </c>
       <c r="C31" t="n">
-        <v>789</v>
+        <v>1052</v>
       </c>
       <c r="D31" t="n">
-        <v>1052</v>
+        <v>1578</v>
       </c>
       <c r="E31" t="n">
-        <v>1578</v>
+        <v>3156</v>
       </c>
       <c r="F31" t="n">
-        <v>3156</v>
-      </c>
-      <c r="G31" t="n">
         <v>2104</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Memphis, TN-MS-AR (00-32820)</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
+      <c r="H31" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0165</v>
       </c>
       <c r="J31" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.0226</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.0226</v>
-      </c>
-      <c r="M31" t="n">
         <v>0.0488</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>Miami-Fort Lauderdale-West Palm Beach, FL (00-33100)</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>373</v>
+      </c>
       <c r="C32" t="n">
-        <v>373</v>
+        <v>961</v>
       </c>
       <c r="D32" t="n">
-        <v>961</v>
+        <v>1463</v>
       </c>
       <c r="E32" t="n">
-        <v>1463</v>
+        <v>2588</v>
       </c>
       <c r="F32" t="n">
-        <v>2588</v>
-      </c>
-      <c r="G32" t="n">
         <v>1923</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Miami-Fort Lauderdale-West Palm Beach, FL (00-33100)</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
+      <c r="H32" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0261</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0605</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
         <v>0.0344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>Milwaukee-Waukesha-West Allis, WI (00-33340)</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>714</v>
+      </c>
       <c r="C33" t="n">
-        <v>714</v>
+        <v>1190</v>
       </c>
       <c r="D33" t="n">
-        <v>1190</v>
+        <v>1785</v>
       </c>
       <c r="E33" t="n">
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="F33" t="n">
-        <v>3571</v>
-      </c>
-      <c r="G33" t="n">
         <v>2381</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Milwaukee-Waukesha-West Allis, WI (00-33340)</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>WI</t>
-        </is>
+      <c r="H33" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0298</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0832</v>
+        <v>0.0257</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0298</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0257</v>
-      </c>
-      <c r="M33" t="n">
         <v>0.0277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>Minneapolis-St. Paul-Bloomington, MN-WI (00-33460)</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>603</v>
+      </c>
       <c r="C34" t="n">
-        <v>603</v>
+        <v>1300</v>
       </c>
       <c r="D34" t="n">
-        <v>1300</v>
+        <v>2012</v>
       </c>
       <c r="E34" t="n">
-        <v>2012</v>
+        <v>3674</v>
       </c>
       <c r="F34" t="n">
-        <v>3674</v>
-      </c>
-      <c r="G34" t="n">
         <v>2560</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Minneapolis-St. Paul-Bloomington, MN-WI (00-33460)</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
+      <c r="H34" t="n">
+        <v>0.09950000000000001</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0282</v>
       </c>
       <c r="J34" t="n">
-        <v>0.09950000000000001</v>
+        <v>0.0401</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0282</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0401</v>
-      </c>
-      <c r="M34" t="n">
         <v>0.0312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nashville</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>Nashville-Davidson--Murfreesboro--Franklin, TN (00-34980)</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>445</v>
+      </c>
       <c r="C35" t="n">
-        <v>445</v>
+        <v>953</v>
       </c>
       <c r="D35" t="n">
-        <v>953</v>
+        <v>1483</v>
       </c>
       <c r="E35" t="n">
-        <v>1483</v>
+        <v>2670</v>
       </c>
       <c r="F35" t="n">
-        <v>2670</v>
-      </c>
-      <c r="G35" t="n">
         <v>1963</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Nashville-Davidson--Murfreesboro--Franklin, TN (00-34980)</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
+      <c r="H35" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0164</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0607</v>
+        <v>0.0005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0164</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="M35" t="n">
         <v>0.0438</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>New Orleans-Metairie, LA (00-35380)</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>545</v>
+      </c>
       <c r="C36" t="n">
-        <v>545</v>
+        <v>1007</v>
       </c>
       <c r="D36" t="n">
-        <v>1007</v>
+        <v>1559</v>
       </c>
       <c r="E36" t="n">
-        <v>1559</v>
+        <v>2976</v>
       </c>
       <c r="F36" t="n">
-        <v>2976</v>
-      </c>
-      <c r="G36" t="n">
         <v>2046</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>New Orleans-Metairie, LA (00-35380)</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>LA</t>
-        </is>
+      <c r="H36" t="n">
+        <v>0.0829</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0183</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0829</v>
+        <v>0.0157</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="M36" t="n">
         <v>0.0489</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>Oklahoma City, OK (00-36420)</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>742</v>
+      </c>
       <c r="C37" t="n">
-        <v>742</v>
+        <v>1051</v>
       </c>
       <c r="D37" t="n">
-        <v>1051</v>
+        <v>1577</v>
       </c>
       <c r="E37" t="n">
-        <v>1577</v>
+        <v>3154</v>
       </c>
       <c r="F37" t="n">
-        <v>3154</v>
-      </c>
-      <c r="G37" t="n">
         <v>2175</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Oklahoma City, OK (00-36420)</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="H37" t="n">
+        <v>0.0704</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0171</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0704</v>
+        <v>0.0175</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="M37" t="n">
         <v>0.0358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Omaha</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>804</v>
+      </c>
       <c r="C38" t="n">
-        <v>804</v>
+        <v>1206</v>
       </c>
       <c r="D38" t="n">
-        <v>1206</v>
+        <v>1810</v>
       </c>
       <c r="E38" t="n">
-        <v>1810</v>
+        <v>3620</v>
       </c>
       <c r="F38" t="n">
-        <v>3620</v>
-      </c>
-      <c r="G38" t="n">
         <v>2413</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
+      <c r="H38" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0339</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0921</v>
+        <v>0.0239</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0339</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="M38" t="n">
         <v>0.0343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>486</v>
+      </c>
       <c r="C39" t="n">
-        <v>486</v>
+        <v>1046</v>
       </c>
       <c r="D39" t="n">
-        <v>1046</v>
+        <v>1620</v>
       </c>
       <c r="E39" t="n">
-        <v>1620</v>
+        <v>2958</v>
       </c>
       <c r="F39" t="n">
-        <v>2958</v>
-      </c>
-      <c r="G39" t="n">
         <v>2061</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
+      <c r="H39" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0261</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0605</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
         <v>0.0344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>485</v>
+      </c>
       <c r="C40" t="n">
-        <v>485</v>
+        <v>1110</v>
       </c>
       <c r="D40" t="n">
-        <v>1110</v>
+        <v>1727</v>
       </c>
       <c r="E40" t="n">
-        <v>1727</v>
+        <v>3109</v>
       </c>
       <c r="F40" t="n">
-        <v>3109</v>
-      </c>
-      <c r="G40" t="n">
         <v>2221</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
+      <c r="H40" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0459</v>
       </c>
       <c r="J40" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.0236</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0459</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="M40" t="n">
         <v>0.0252</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>552</v>
+      </c>
       <c r="C41" t="n">
-        <v>552</v>
+        <v>1104</v>
       </c>
       <c r="D41" t="n">
-        <v>1104</v>
+        <v>1709</v>
       </c>
       <c r="E41" t="n">
-        <v>1709</v>
+        <v>3122</v>
       </c>
       <c r="F41" t="n">
-        <v>3122</v>
-      </c>
-      <c r="G41" t="n">
         <v>2244</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>AZ</t>
-        </is>
+      <c r="H41" t="n">
+        <v>0.0779</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0226</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0779</v>
+        <v>0.0162</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0226</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="M41" t="n">
         <v>0.0391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>Pittsburgh, PA (00-38300)</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>664</v>
+      </c>
       <c r="C42" t="n">
-        <v>664</v>
+        <v>1107</v>
       </c>
       <c r="D42" t="n">
-        <v>1107</v>
+        <v>1661</v>
       </c>
       <c r="E42" t="n">
-        <v>1661</v>
+        <v>3323</v>
       </c>
       <c r="F42" t="n">
-        <v>3323</v>
-      </c>
-      <c r="G42" t="n">
         <v>2144</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Pittsburgh, PA (00-38300)</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
+      <c r="H42" t="n">
+        <v>0.08359999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0262</v>
       </c>
       <c r="J42" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.0264</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.0264</v>
-      </c>
-      <c r="M42" t="n">
         <v>0.031</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portland</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>Portland-South Portland, ME (00-76750)</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>428</v>
+      </c>
       <c r="C43" t="n">
-        <v>428</v>
+        <v>1041</v>
       </c>
       <c r="D43" t="n">
-        <v>1041</v>
+        <v>1584</v>
       </c>
       <c r="E43" t="n">
-        <v>1584</v>
+        <v>2803</v>
       </c>
       <c r="F43" t="n">
-        <v>2803</v>
-      </c>
-      <c r="G43" t="n">
         <v>2082</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Portland-South Portland, ME (00-76750)</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
+      <c r="H43" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0486</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1074</v>
+        <v>0.0259</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0486</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.0259</v>
-      </c>
-      <c r="M43" t="n">
         <v>0.0329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Portland</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>483</v>
+      </c>
       <c r="C44" t="n">
-        <v>483</v>
+        <v>1174</v>
       </c>
       <c r="D44" t="n">
-        <v>1174</v>
+        <v>1787</v>
       </c>
       <c r="E44" t="n">
-        <v>1787</v>
+        <v>3162</v>
       </c>
       <c r="F44" t="n">
-        <v>3162</v>
-      </c>
-      <c r="G44" t="n">
         <v>2349</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
+      <c r="H44" t="n">
+        <v>0.0844</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0295</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0844</v>
+        <v>0.043</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0295</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="M44" t="n">
         <v>0.0119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Providence</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>Providence-Warwick, RI-MA (00-77200)</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>628</v>
+      </c>
       <c r="C45" t="n">
-        <v>628</v>
+        <v>1256</v>
       </c>
       <c r="D45" t="n">
-        <v>1256</v>
+        <v>1944</v>
       </c>
       <c r="E45" t="n">
-        <v>1944</v>
+        <v>3550</v>
       </c>
       <c r="F45" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G45" t="n">
         <v>2474</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Providence-Warwick, RI-MA (00-77200)</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>RI</t>
-        </is>
+      <c r="H45" t="n">
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0383</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.0249</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0383</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.0249</v>
-      </c>
-      <c r="M45" t="n">
         <v>0.0306</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Raleigh</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>Raleigh, NC (00-39580)</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>701</v>
+      </c>
       <c r="C46" t="n">
-        <v>701</v>
+        <v>1403</v>
       </c>
       <c r="D46" t="n">
-        <v>1403</v>
+        <v>2104</v>
       </c>
       <c r="E46" t="n">
-        <v>2104</v>
+        <v>3826</v>
       </c>
       <c r="F46" t="n">
-        <v>3826</v>
-      </c>
-      <c r="G46" t="n">
         <v>2630</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Raleigh, NC (00-39580)</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
+      <c r="H46" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.02</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0789</v>
+        <v>0.0268</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.0268</v>
-      </c>
-      <c r="M46" t="n">
         <v>0.0321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sacramento</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>527</v>
+      </c>
       <c r="C47" t="n">
-        <v>527</v>
+        <v>1204</v>
       </c>
       <c r="D47" t="n">
-        <v>1204</v>
+        <v>1873</v>
       </c>
       <c r="E47" t="n">
-        <v>1873</v>
+        <v>3372</v>
       </c>
       <c r="F47" t="n">
-        <v>3372</v>
-      </c>
-      <c r="G47" t="n">
         <v>2480</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
+      <c r="H47" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0273</v>
       </c>
       <c r="J47" t="n">
-        <v>0.104</v>
+        <v>0.0487</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.0487</v>
-      </c>
-      <c r="M47" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>Salt Lake City, UT (00-41620)</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>505</v>
+      </c>
       <c r="C48" t="n">
-        <v>505</v>
+        <v>1089</v>
       </c>
       <c r="D48" t="n">
-        <v>1089</v>
+        <v>1685</v>
       </c>
       <c r="E48" t="n">
-        <v>1685</v>
+        <v>3078</v>
       </c>
       <c r="F48" t="n">
-        <v>3078</v>
-      </c>
-      <c r="G48" t="n">
         <v>2145</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Salt Lake City, UT (00-41620)</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
+      <c r="H48" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0219</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0935</v>
+        <v>0.0357</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0219</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="M48" t="n">
         <v>0.0359</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>San Antonio-New Braunfels, TX (00-41700)</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>610</v>
+      </c>
       <c r="C49" t="n">
-        <v>610</v>
+        <v>1118</v>
       </c>
       <c r="D49" t="n">
-        <v>1118</v>
+        <v>1678</v>
       </c>
       <c r="E49" t="n">
-        <v>1678</v>
+        <v>3051</v>
       </c>
       <c r="F49" t="n">
-        <v>3051</v>
-      </c>
-      <c r="G49" t="n">
         <v>2165</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>San Antonio-New Braunfels, TX (00-41700)</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
+      <c r="H49" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0371</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0756</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
         <v>0.0385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>San Diego</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>San Diego-Carlsbad, CA (00-41740)</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>379</v>
+      </c>
       <c r="C50" t="n">
-        <v>379</v>
+        <v>1090</v>
       </c>
       <c r="D50" t="n">
-        <v>1090</v>
+        <v>1744</v>
       </c>
       <c r="E50" t="n">
-        <v>1744</v>
+        <v>2907</v>
       </c>
       <c r="F50" t="n">
-        <v>2907</v>
-      </c>
-      <c r="G50" t="n">
         <v>2180</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>San Diego-Carlsbad, CA (00-41740)</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
+      <c r="H50" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0273</v>
       </c>
       <c r="J50" t="n">
-        <v>0.104</v>
+        <v>0.0487</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.0487</v>
-      </c>
-      <c r="M50" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>365</v>
+      </c>
       <c r="C51" t="n">
-        <v>365</v>
+        <v>1297</v>
       </c>
       <c r="D51" t="n">
-        <v>1297</v>
+        <v>1946</v>
       </c>
       <c r="E51" t="n">
-        <v>1946</v>
+        <v>2920</v>
       </c>
       <c r="F51" t="n">
-        <v>2920</v>
-      </c>
-      <c r="G51" t="n">
         <v>2336</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
+      <c r="H51" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0273</v>
       </c>
       <c r="J51" t="n">
-        <v>0.104</v>
+        <v>0.0487</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.0487</v>
-      </c>
-      <c r="M51" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>San Jose</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
           <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>526</v>
+      </c>
       <c r="C52" t="n">
-        <v>526</v>
+        <v>1733</v>
       </c>
       <c r="D52" t="n">
-        <v>1733</v>
+        <v>2678</v>
       </c>
       <c r="E52" t="n">
-        <v>2678</v>
+        <v>4209</v>
       </c>
       <c r="F52" t="n">
-        <v>4209</v>
-      </c>
-      <c r="G52" t="n">
         <v>3273</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
+      <c r="H52" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0273</v>
       </c>
       <c r="J52" t="n">
-        <v>0.104</v>
+        <v>0.0487</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.0487</v>
-      </c>
-      <c r="M52" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Seattle</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
           <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>524</v>
+      </c>
       <c r="C53" t="n">
-        <v>524</v>
+        <v>1312</v>
       </c>
       <c r="D53" t="n">
-        <v>1312</v>
+        <v>2099</v>
       </c>
       <c r="E53" t="n">
-        <v>2099</v>
+        <v>3499</v>
       </c>
       <c r="F53" t="n">
-        <v>3499</v>
-      </c>
-      <c r="G53" t="n">
         <v>2624</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
+      <c r="H53" t="n">
+        <v>0.0804</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0258</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0804</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0258</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
         <v>0.0546</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>St. Louis</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
           <t>St. Louis, MO-IL (00-41180)</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>710</v>
+      </c>
       <c r="C54" t="n">
-        <v>710</v>
+        <v>1065</v>
       </c>
       <c r="D54" t="n">
-        <v>1065</v>
+        <v>1597</v>
       </c>
       <c r="E54" t="n">
-        <v>1597</v>
+        <v>3195</v>
       </c>
       <c r="F54" t="n">
-        <v>3195</v>
-      </c>
-      <c r="G54" t="n">
         <v>2130</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>St. Louis, MO-IL (00-41180)</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
+      <c r="H54" t="n">
+        <v>0.09669999999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0367</v>
       </c>
       <c r="J54" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.0257</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0367</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.0257</v>
-      </c>
-      <c r="M54" t="n">
         <v>0.0343</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Trenton</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
           <t>Trenton, NJ (00-45940)</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>760</v>
+      </c>
       <c r="C55" t="n">
-        <v>760</v>
+        <v>1394</v>
       </c>
       <c r="D55" t="n">
-        <v>1394</v>
+        <v>2092</v>
       </c>
       <c r="E55" t="n">
-        <v>2092</v>
+        <v>3804</v>
       </c>
       <c r="F55" t="n">
-        <v>3804</v>
-      </c>
-      <c r="G55" t="n">
         <v>2699</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Trenton, NJ (00-45940)</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
+      <c r="H55" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0459</v>
       </c>
       <c r="J55" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.0236</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0459</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="M55" t="n">
         <v>0.0252</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Washington DC</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
           <t>Washington DC-Arlington-Alexandria, DC-VA-MD-WV (00-47900)</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>399</v>
+      </c>
       <c r="C56" t="n">
-        <v>399</v>
+        <v>1175</v>
       </c>
       <c r="D56" t="n">
-        <v>1175</v>
+        <v>1816</v>
       </c>
       <c r="E56" t="n">
-        <v>1816</v>
+        <v>2854</v>
       </c>
       <c r="F56" t="n">
-        <v>2854</v>
-      </c>
-      <c r="G56" t="n">
         <v>2220</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Washington DC-Arlington-Alexandria, DC-VA-MD-WV (00-47900)</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>MD</t>
-        </is>
+      <c r="H56" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.026</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0926</v>
+        <v>0.04</v>
       </c>
       <c r="K56" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M56" t="n">
         <v>0.0266</v>
       </c>
     </row>
